--- a/config_11.3/item_config.xlsx
+++ b/config_11.3/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="607">
   <si>
     <t>id|行号</t>
   </si>
@@ -2468,6 +2468,14 @@
   </si>
   <si>
     <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
+    <t>prop_guess_apple_cz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_sd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2545,7 +2553,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2566,19 +2574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2625,7 +2627,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2671,24 +2673,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2710,16 +2694,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3000,11 +2990,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q169"/>
+  <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4483,7 +4473,7 @@
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="15" t="s">
         <v>431</v>
       </c>
       <c r="D48" s="2">
@@ -4517,7 +4507,7 @@
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="15" t="s">
         <v>430</v>
       </c>
       <c r="D49" s="2">
@@ -4648,7 +4638,7 @@
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="15" t="s">
         <v>188</v>
       </c>
       <c r="D53" s="2">
@@ -4680,7 +4670,7 @@
       <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="15" t="s">
         <v>191</v>
       </c>
       <c r="D54" s="2">
@@ -4701,7 +4691,7 @@
       <c r="I54" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="J54" s="16" t="s">
         <v>193</v>
       </c>
       <c r="L54" s="5" t="s">
@@ -4718,7 +4708,7 @@
       <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="15" t="s">
         <v>194</v>
       </c>
       <c r="D55" s="2">
@@ -4739,7 +4729,7 @@
       <c r="I55" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="16" t="s">
         <v>196</v>
       </c>
       <c r="L55" s="5" t="s">
@@ -4756,7 +4746,7 @@
       <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="15" t="s">
         <v>197</v>
       </c>
       <c r="D56" s="2">
@@ -4777,7 +4767,7 @@
       <c r="I56" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="16" t="s">
         <v>199</v>
       </c>
       <c r="L56" s="5" t="s">
@@ -4794,7 +4784,7 @@
       <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="15" t="s">
         <v>200</v>
       </c>
       <c r="D57" s="2">
@@ -4803,7 +4793,7 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="15" t="s">
         <v>201</v>
       </c>
       <c r="G57" s="2">
@@ -4815,7 +4805,7 @@
       <c r="I57" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="16" t="s">
         <v>202</v>
       </c>
       <c r="L57" s="5" t="s">
@@ -4829,7 +4819,7 @@
       <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="15" t="s">
         <v>204</v>
       </c>
       <c r="D58" s="2">
@@ -4850,7 +4840,7 @@
       <c r="I58" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="16" t="s">
         <v>207</v>
       </c>
       <c r="N58" s="2">
@@ -4864,7 +4854,7 @@
       <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="15" t="s">
         <v>208</v>
       </c>
       <c r="D59" s="2">
@@ -4885,7 +4875,7 @@
       <c r="I59" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="J59" s="22" t="s">
+      <c r="J59" s="16" t="s">
         <v>211</v>
       </c>
       <c r="N59" s="2">
@@ -4899,7 +4889,7 @@
       <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="15" t="s">
         <v>212</v>
       </c>
       <c r="D60" s="2">
@@ -4920,7 +4910,7 @@
       <c r="I60" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="16" t="s">
         <v>215</v>
       </c>
       <c r="N60" s="2">
@@ -4934,7 +4924,7 @@
       <c r="B61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="15" t="s">
         <v>216</v>
       </c>
       <c r="D61" s="2">
@@ -4955,7 +4945,7 @@
       <c r="I61" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="16" t="s">
         <v>219</v>
       </c>
       <c r="N61" s="2">
@@ -4969,7 +4959,7 @@
       <c r="B62" s="3">
         <v>60</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="15" t="s">
         <v>220</v>
       </c>
       <c r="D62" s="2">
@@ -4990,7 +4980,7 @@
       <c r="I62" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="16" t="s">
         <v>177</v>
       </c>
       <c r="N62" s="2">
@@ -5004,7 +4994,7 @@
       <c r="B63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="15" t="s">
         <v>222</v>
       </c>
       <c r="D63" s="2">
@@ -5025,7 +5015,7 @@
       <c r="I63" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="16" t="s">
         <v>225</v>
       </c>
       <c r="L63" s="5" t="s">
@@ -5039,7 +5029,7 @@
       <c r="B64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D64" s="2">
@@ -5060,7 +5050,7 @@
       <c r="I64" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="16" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5071,7 +5061,7 @@
       <c r="B65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="15" t="s">
         <v>230</v>
       </c>
       <c r="D65" s="2">
@@ -5080,7 +5070,7 @@
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="15" t="s">
         <v>231</v>
       </c>
       <c r="G65" s="2">
@@ -5092,7 +5082,7 @@
       <c r="I65" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="J65" s="22" t="s">
+      <c r="J65" s="16" t="s">
         <v>233</v>
       </c>
       <c r="L65" s="5" t="s">
@@ -5127,7 +5117,7 @@
       <c r="I66" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="J66" s="22" t="s">
+      <c r="J66" s="16" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5159,7 +5149,7 @@
       <c r="I67" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J67" s="22" t="s">
+      <c r="J67" s="16" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5191,7 +5181,7 @@
       <c r="I68" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="16" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5223,7 +5213,7 @@
       <c r="I69" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="J69" s="22" t="s">
+      <c r="J69" s="16" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5234,7 +5224,7 @@
       <c r="B70" s="2">
         <v>68</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="15" t="s">
         <v>251</v>
       </c>
       <c r="D70" s="2">
@@ -5255,7 +5245,7 @@
       <c r="I70" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J70" s="22" t="s">
+      <c r="J70" s="16" t="s">
         <v>225</v>
       </c>
       <c r="L70" s="5" t="s">
@@ -5278,7 +5268,7 @@
       <c r="E71" s="2">
         <v>1</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="15" t="s">
         <v>254</v>
       </c>
       <c r="G71" s="2">
@@ -5290,7 +5280,7 @@
       <c r="I71" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="J71" s="22" t="s">
+      <c r="J71" s="16" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5310,7 +5300,7 @@
       <c r="E72" s="2">
         <v>1</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="15" t="s">
         <v>550</v>
       </c>
       <c r="G72" s="2">
@@ -5322,7 +5312,7 @@
       <c r="I72" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J72" s="22" t="s">
+      <c r="J72" s="16" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5333,7 +5323,7 @@
       <c r="B73" s="2">
         <v>71</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="15" t="s">
         <v>261</v>
       </c>
       <c r="D73" s="2">
@@ -5351,10 +5341,10 @@
       <c r="H73" s="2">
         <v>1</v>
       </c>
-      <c r="I73" s="21" t="s">
+      <c r="I73" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="J73" s="22" t="s">
+      <c r="J73" s="16" t="s">
         <v>263</v>
       </c>
       <c r="L73" s="5" t="s">
@@ -5392,7 +5382,7 @@
       <c r="I74" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="16" t="s">
         <v>266</v>
       </c>
       <c r="L74" s="5" t="s">
@@ -5409,7 +5399,7 @@
       <c r="B75" s="2">
         <v>73</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="15" t="s">
         <v>267</v>
       </c>
       <c r="D75" s="2">
@@ -5418,7 +5408,7 @@
       <c r="E75" s="2">
         <v>1</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="15" t="s">
         <v>268</v>
       </c>
       <c r="G75" s="2">
@@ -5430,7 +5420,7 @@
       <c r="I75" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J75" s="22" t="s">
+      <c r="J75" s="16" t="s">
         <v>270</v>
       </c>
       <c r="L75" s="5" t="s">
@@ -5447,7 +5437,7 @@
       <c r="B76" s="2">
         <v>74</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="15" t="s">
         <v>271</v>
       </c>
       <c r="D76" s="2">
@@ -5456,7 +5446,7 @@
       <c r="E76" s="2">
         <v>1</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G76" s="2">
@@ -5468,7 +5458,7 @@
       <c r="I76" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="16" t="s">
         <v>274</v>
       </c>
       <c r="L76" s="5"/>
@@ -5504,7 +5494,7 @@
       <c r="I77" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J77" s="23" t="s">
+      <c r="J77" s="17" t="s">
         <v>397</v>
       </c>
       <c r="L77" s="5" t="s">
@@ -5539,7 +5529,7 @@
       <c r="I78" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="17" t="s">
         <v>281</v>
       </c>
       <c r="L78" s="5"/>
@@ -5560,7 +5550,7 @@
       <c r="E79" s="2">
         <v>1</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="15" t="s">
         <v>283</v>
       </c>
       <c r="G79" s="2">
@@ -5572,7 +5562,7 @@
       <c r="I79" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J79" s="22" t="s">
+      <c r="J79" s="16" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5592,7 +5582,7 @@
       <c r="E80" s="2">
         <v>1</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="15" t="s">
         <v>456</v>
       </c>
       <c r="G80" s="2">
@@ -5604,7 +5594,7 @@
       <c r="I80" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="J80" s="22" t="s">
+      <c r="J80" s="16" t="s">
         <v>286</v>
       </c>
       <c r="L80" s="5" t="s">
@@ -5627,7 +5617,7 @@
       <c r="E81" s="2">
         <v>1</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="15" t="s">
         <v>288</v>
       </c>
       <c r="G81" s="2">
@@ -5639,7 +5629,7 @@
       <c r="I81" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J81" s="23" t="s">
+      <c r="J81" s="17" t="s">
         <v>412</v>
       </c>
       <c r="L81" s="5" t="s">
@@ -5665,7 +5655,7 @@
       <c r="E82" s="2">
         <v>1</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F82" s="15" t="s">
         <v>291</v>
       </c>
       <c r="G82" s="2">
@@ -5677,7 +5667,7 @@
       <c r="I82" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="J82" s="23" t="s">
+      <c r="J82" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L82" s="5" t="s">
@@ -5694,7 +5684,7 @@
       <c r="B83" s="9">
         <v>82</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D83" s="9">
@@ -5703,7 +5693,7 @@
       <c r="E83" s="9">
         <v>1</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="18" t="s">
         <v>336</v>
       </c>
       <c r="G83" s="9">
@@ -5715,7 +5705,7 @@
       <c r="I83" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="J83" s="25" t="s">
+      <c r="J83" s="19" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5735,7 +5725,7 @@
       <c r="E84" s="11">
         <v>1</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="F84" s="20" t="s">
         <v>294</v>
       </c>
       <c r="G84" s="11">
@@ -5747,7 +5737,7 @@
       <c r="I84" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="J84" s="27" t="s">
+      <c r="J84" s="21" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5767,7 +5757,7 @@
       <c r="E85" s="2">
         <v>1</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="15" t="s">
         <v>299</v>
       </c>
       <c r="G85" s="2">
@@ -5799,7 +5789,7 @@
       <c r="E86" s="2">
         <v>1</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F86" s="15" t="s">
         <v>300</v>
       </c>
       <c r="G86" s="2">
@@ -5831,7 +5821,7 @@
       <c r="E87" s="2">
         <v>1</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="F87" s="15" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="2">
@@ -5863,7 +5853,7 @@
       <c r="E88" s="2">
         <v>1</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="15" t="s">
         <v>302</v>
       </c>
       <c r="G88" s="2">
@@ -5895,7 +5885,7 @@
       <c r="E89" s="2">
         <v>1</v>
       </c>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="15" t="s">
         <v>303</v>
       </c>
       <c r="G89" s="2">
@@ -5927,7 +5917,7 @@
       <c r="E90" s="2">
         <v>1</v>
       </c>
-      <c r="F90" s="21" t="s">
+      <c r="F90" s="15" t="s">
         <v>304</v>
       </c>
       <c r="G90" s="2">
@@ -5959,7 +5949,7 @@
       <c r="E91" s="2">
         <v>1</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="15" t="s">
         <v>305</v>
       </c>
       <c r="G91" s="2">
@@ -5991,7 +5981,7 @@
       <c r="E92" s="2">
         <v>1</v>
       </c>
-      <c r="F92" s="21" t="s">
+      <c r="F92" s="15" t="s">
         <v>306</v>
       </c>
       <c r="G92" s="2">
@@ -6023,7 +6013,7 @@
       <c r="E93" s="2">
         <v>1</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="F93" s="15" t="s">
         <v>307</v>
       </c>
       <c r="G93" s="2">
@@ -6055,7 +6045,7 @@
       <c r="E94" s="2">
         <v>1</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="15" t="s">
         <v>327</v>
       </c>
       <c r="G94" s="2">
@@ -6099,7 +6089,7 @@
       <c r="E95" s="2">
         <v>1</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="15" t="s">
         <v>340</v>
       </c>
       <c r="G95" s="2">
@@ -6131,7 +6121,7 @@
       <c r="E96" s="2">
         <v>1</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="15" t="s">
         <v>341</v>
       </c>
       <c r="G96" s="2">
@@ -6163,7 +6153,7 @@
       <c r="E97" s="2">
         <v>1</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F97" s="15" t="s">
         <v>350</v>
       </c>
       <c r="G97" s="2">
@@ -6195,7 +6185,7 @@
       <c r="E98" s="2">
         <v>1</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="15" t="s">
         <v>389</v>
       </c>
       <c r="G98" s="2">
@@ -6230,7 +6220,7 @@
       <c r="E99" s="2">
         <v>1</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="15" t="s">
         <v>392</v>
       </c>
       <c r="G99" s="2">
@@ -6265,7 +6255,7 @@
       <c r="E100" s="2">
         <v>1</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="15" t="s">
         <v>391</v>
       </c>
       <c r="G100" s="2">
@@ -6300,7 +6290,7 @@
       <c r="E101" s="2">
         <v>1</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="F101" s="15" t="s">
         <v>395</v>
       </c>
       <c r="G101" s="2">
@@ -6335,7 +6325,7 @@
       <c r="E102" s="2">
         <v>1</v>
       </c>
-      <c r="F102" s="21" t="s">
+      <c r="F102" s="15" t="s">
         <v>393</v>
       </c>
       <c r="G102" s="2">
@@ -6370,7 +6360,7 @@
       <c r="E103" s="2">
         <v>1</v>
       </c>
-      <c r="F103" s="21" t="s">
+      <c r="F103" s="15" t="s">
         <v>385</v>
       </c>
       <c r="G103" s="2">
@@ -6405,7 +6395,7 @@
       <c r="E104" s="2">
         <v>1</v>
       </c>
-      <c r="F104" s="21" t="s">
+      <c r="F104" s="15" t="s">
         <v>386</v>
       </c>
       <c r="G104" s="2">
@@ -6440,7 +6430,7 @@
       <c r="E105" s="2">
         <v>1</v>
       </c>
-      <c r="F105" s="21" t="s">
+      <c r="F105" s="15" t="s">
         <v>392</v>
       </c>
       <c r="G105" s="2">
@@ -6475,7 +6465,7 @@
       <c r="E106" s="2">
         <v>1</v>
       </c>
-      <c r="F106" s="21" t="s">
+      <c r="F106" s="15" t="s">
         <v>394</v>
       </c>
       <c r="G106" s="2">
@@ -6501,7 +6491,7 @@
       <c r="B107" s="2">
         <v>106</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="15" t="s">
         <v>432</v>
       </c>
       <c r="D107" s="2">
@@ -6538,7 +6528,7 @@
       <c r="B108" s="2">
         <v>107</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="15" t="s">
         <v>433</v>
       </c>
       <c r="D108" s="2">
@@ -6584,7 +6574,7 @@
       <c r="E109" s="2">
         <v>1</v>
       </c>
-      <c r="F109" s="21" t="s">
+      <c r="F109" s="15" t="s">
         <v>372</v>
       </c>
       <c r="G109" s="2">
@@ -6616,7 +6606,7 @@
       <c r="E110" s="2">
         <v>1</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="F110" s="15" t="s">
         <v>379</v>
       </c>
       <c r="G110" s="2">
@@ -6640,7 +6630,7 @@
       <c r="B111" s="2">
         <v>110</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="15" t="s">
         <v>398</v>
       </c>
       <c r="D111" s="2">
@@ -6678,7 +6668,7 @@
       <c r="B112" s="2">
         <v>111</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D112" s="2">
@@ -6716,7 +6706,7 @@
       <c r="B113" s="2">
         <v>112</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="15" t="s">
         <v>404</v>
       </c>
       <c r="D113" s="2">
@@ -6754,7 +6744,7 @@
       <c r="B114" s="2">
         <v>113</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="15" t="s">
         <v>406</v>
       </c>
       <c r="D114" s="2">
@@ -6792,7 +6782,7 @@
       <c r="B115" s="2">
         <v>114</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="15" t="s">
         <v>408</v>
       </c>
       <c r="D115" s="2">
@@ -6830,7 +6820,7 @@
       <c r="B116" s="2">
         <v>115</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="15" t="s">
         <v>410</v>
       </c>
       <c r="D116" s="2">
@@ -6868,7 +6858,7 @@
       <c r="B117" s="2">
         <v>116</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="15" t="s">
         <v>452</v>
       </c>
       <c r="D117" s="2">
@@ -6902,7 +6892,7 @@
       <c r="B118" s="2">
         <v>117</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D118" s="2">
@@ -6934,7 +6924,7 @@
       <c r="B119" s="2">
         <v>118</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="15" t="s">
         <v>440</v>
       </c>
       <c r="D119" s="2">
@@ -6966,7 +6956,7 @@
       <c r="B120" s="2">
         <v>119</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="15" t="s">
         <v>443</v>
       </c>
       <c r="D120" s="2">
@@ -6998,7 +6988,7 @@
       <c r="B121" s="2">
         <v>120</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="15" t="s">
         <v>446</v>
       </c>
       <c r="D121" s="2">
@@ -7030,7 +7020,7 @@
       <c r="B122" s="2">
         <v>121</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="15" t="s">
         <v>449</v>
       </c>
       <c r="D122" s="2">
@@ -7062,7 +7052,7 @@
       <c r="B123" s="2">
         <v>122</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="15" t="s">
         <v>458</v>
       </c>
       <c r="D123" s="2">
@@ -7097,7 +7087,7 @@
       <c r="B124" s="2">
         <v>123</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="15" t="s">
         <v>459</v>
       </c>
       <c r="D124" s="2">
@@ -7132,7 +7122,7 @@
       <c r="B125" s="2">
         <v>124</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="15" t="s">
         <v>460</v>
       </c>
       <c r="D125" s="2">
@@ -7167,7 +7157,7 @@
       <c r="B126" s="2">
         <v>125</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="15" t="s">
         <v>461</v>
       </c>
       <c r="D126" s="2">
@@ -7202,7 +7192,7 @@
       <c r="B127" s="2">
         <v>126</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="15" t="s">
         <v>462</v>
       </c>
       <c r="D127" s="2">
@@ -7237,7 +7227,7 @@
       <c r="B128" s="2">
         <v>127</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="15" t="s">
         <v>463</v>
       </c>
       <c r="D128" s="2">
@@ -7272,7 +7262,7 @@
       <c r="B129" s="2">
         <v>128</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="15" t="s">
         <v>464</v>
       </c>
       <c r="D129" s="2">
@@ -7307,7 +7297,7 @@
       <c r="B130" s="2">
         <v>129</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="15" t="s">
         <v>465</v>
       </c>
       <c r="D130" s="2">
@@ -7342,7 +7332,7 @@
       <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="15" t="s">
         <v>468</v>
       </c>
       <c r="D131" s="2">
@@ -7815,781 +7805,845 @@
         <v>512</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="13">
+    <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
         <v>145</v>
       </c>
-      <c r="B146" s="13">
+      <c r="B146" s="11">
         <v>145</v>
       </c>
-      <c r="C146" s="28" t="s">
+      <c r="C146" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="D146" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E146" s="13">
-        <v>1</v>
-      </c>
-      <c r="F146" s="14" t="s">
+      <c r="D146" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E146" s="11">
+        <v>1</v>
+      </c>
+      <c r="F146" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="G146" s="13">
+      <c r="G146" s="11">
         <v>0</v>
       </c>
-      <c r="H146" s="13">
+      <c r="H146" s="11">
         <v>33</v>
       </c>
-      <c r="I146" s="14" t="s">
+      <c r="I146" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="J146" s="15" t="s">
+      <c r="J146" s="23" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="13">
+    <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
         <v>146</v>
       </c>
-      <c r="B147" s="13">
+      <c r="B147" s="11">
         <v>146</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="D147" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E147" s="13">
-        <v>1</v>
-      </c>
-      <c r="F147" s="14" t="s">
+      <c r="D147" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="11">
+        <v>1</v>
+      </c>
+      <c r="F147" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="G147" s="13">
+      <c r="G147" s="11">
         <v>0</v>
       </c>
-      <c r="H147" s="13">
+      <c r="H147" s="11">
         <v>33</v>
       </c>
-      <c r="I147" s="14" t="s">
+      <c r="I147" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="J147" s="15" t="s">
+      <c r="J147" s="23" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="13">
+    <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="11">
         <v>147</v>
       </c>
-      <c r="B148" s="13">
+      <c r="B148" s="11">
         <v>147</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="D148" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E148" s="13">
-        <v>1</v>
-      </c>
-      <c r="F148" s="14" t="s">
+      <c r="D148" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E148" s="11">
+        <v>1</v>
+      </c>
+      <c r="F148" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="G148" s="13">
+      <c r="G148" s="11">
         <v>0</v>
       </c>
-      <c r="H148" s="13">
+      <c r="H148" s="11">
         <v>33</v>
       </c>
-      <c r="I148" s="14" t="s">
+      <c r="I148" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="J148" s="15" t="s">
+      <c r="J148" s="23" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="13">
+    <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="11">
         <v>148</v>
       </c>
-      <c r="B149" s="13">
+      <c r="B149" s="11">
         <v>148</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="D149" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E149" s="13">
-        <v>1</v>
-      </c>
-      <c r="F149" s="14" t="s">
+      <c r="D149" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E149" s="11">
+        <v>1</v>
+      </c>
+      <c r="F149" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="G149" s="13">
+      <c r="G149" s="11">
         <v>0</v>
       </c>
-      <c r="H149" s="13">
+      <c r="H149" s="11">
         <v>33</v>
       </c>
-      <c r="I149" s="14" t="s">
+      <c r="I149" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="J149" s="15" t="s">
+      <c r="J149" s="23" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="13">
+    <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="11">
         <v>149</v>
       </c>
-      <c r="B150" s="13">
+      <c r="B150" s="11">
         <v>149</v>
       </c>
-      <c r="C150" s="28" t="s">
+      <c r="C150" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="D150" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E150" s="13">
-        <v>1</v>
-      </c>
-      <c r="F150" s="14" t="s">
+      <c r="D150" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E150" s="11">
+        <v>1</v>
+      </c>
+      <c r="F150" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="G150" s="13">
+      <c r="G150" s="11">
         <v>0</v>
       </c>
-      <c r="H150" s="13">
+      <c r="H150" s="11">
         <v>33</v>
       </c>
-      <c r="I150" s="14" t="s">
+      <c r="I150" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="J150" s="15" t="s">
+      <c r="J150" s="23" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="13">
+    <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="11">
         <v>150</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="11">
         <v>150</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="D151" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="13">
-        <v>1</v>
-      </c>
-      <c r="F151" s="14" t="s">
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="G151" s="13">
+      <c r="G151" s="11">
         <v>0</v>
       </c>
-      <c r="H151" s="13">
+      <c r="H151" s="11">
         <v>33</v>
       </c>
-      <c r="I151" s="14" t="s">
+      <c r="I151" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="J151" s="15" t="s">
+      <c r="J151" s="23" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="13">
+    <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="11">
         <v>151</v>
       </c>
-      <c r="B152" s="13">
+      <c r="B152" s="11">
         <v>151</v>
       </c>
-      <c r="C152" s="28" t="s">
+      <c r="C152" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="D152" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E152" s="13">
-        <v>1</v>
-      </c>
-      <c r="F152" s="14" t="s">
+      <c r="D152" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E152" s="11">
+        <v>1</v>
+      </c>
+      <c r="F152" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="G152" s="13">
+      <c r="G152" s="11">
         <v>0</v>
       </c>
-      <c r="H152" s="13">
+      <c r="H152" s="11">
         <v>33</v>
       </c>
-      <c r="I152" s="14" t="s">
+      <c r="I152" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="J152" s="15" t="s">
+      <c r="J152" s="23" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="13">
+    <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="11">
         <v>152</v>
       </c>
-      <c r="B153" s="13">
+      <c r="B153" s="11">
         <v>152</v>
       </c>
-      <c r="C153" s="28" t="s">
+      <c r="C153" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="D153" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E153" s="13">
-        <v>1</v>
-      </c>
-      <c r="F153" s="14" t="s">
+      <c r="D153" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E153" s="11">
+        <v>1</v>
+      </c>
+      <c r="F153" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="G153" s="13">
+      <c r="G153" s="11">
         <v>0</v>
       </c>
-      <c r="H153" s="13">
+      <c r="H153" s="11">
         <v>33</v>
       </c>
-      <c r="I153" s="14" t="s">
+      <c r="I153" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="J153" s="15" t="s">
+      <c r="J153" s="23" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="13">
+    <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="11">
         <v>153</v>
       </c>
-      <c r="B154" s="13">
+      <c r="B154" s="11">
         <v>153</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="C154" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="D154" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E154" s="13">
-        <v>1</v>
-      </c>
-      <c r="F154" s="14" t="s">
+      <c r="D154" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E154" s="11">
+        <v>1</v>
+      </c>
+      <c r="F154" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="G154" s="13">
+      <c r="G154" s="11">
         <v>0</v>
       </c>
-      <c r="H154" s="13">
+      <c r="H154" s="11">
         <v>33</v>
       </c>
-      <c r="I154" s="14" t="s">
+      <c r="I154" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="J154" s="15" t="s">
+      <c r="J154" s="23" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
+    <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="11">
         <v>154</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="11">
         <v>154</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="D155" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="2">
-        <v>1</v>
-      </c>
-      <c r="F155" s="5" t="s">
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="11">
         <v>0</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="11">
         <v>33</v>
       </c>
-      <c r="I155" s="5" t="s">
+      <c r="I155" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="J155" s="5" t="s">
+      <c r="J155" s="12" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="16">
+    <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="11">
         <v>155</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="11">
         <v>155</v>
       </c>
-      <c r="C156" s="29" t="s">
+      <c r="C156" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="D156" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E156" s="16">
-        <v>1</v>
-      </c>
-      <c r="F156" s="17" t="s">
+      <c r="D156" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="11">
+        <v>1</v>
+      </c>
+      <c r="F156" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="G156" s="16">
+      <c r="G156" s="11">
         <v>0</v>
       </c>
-      <c r="H156" s="16">
+      <c r="H156" s="11">
         <v>33</v>
       </c>
-      <c r="I156" s="17" t="s">
+      <c r="I156" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="J156" s="18" t="s">
+      <c r="J156" s="23" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="13">
+    <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="11">
         <v>156</v>
       </c>
-      <c r="B157" s="13">
+      <c r="B157" s="11">
         <v>156</v>
       </c>
-      <c r="C157" s="30" t="s">
+      <c r="C157" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="D157" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E157" s="2">
-        <v>1</v>
-      </c>
-      <c r="F157" s="14" t="s">
+      <c r="D157" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="11">
+        <v>1</v>
+      </c>
+      <c r="F157" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="G157" s="13">
-        <v>1</v>
-      </c>
-      <c r="H157" s="13">
+      <c r="G157" s="11">
+        <v>1</v>
+      </c>
+      <c r="H157" s="11">
         <v>34</v>
       </c>
-      <c r="I157" s="14" t="s">
+      <c r="I157" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="J157" s="14" t="s">
+      <c r="J157" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="L157" s="5" t="s">
+      <c r="L157" s="12" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="13">
+    <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="11">
         <v>157</v>
       </c>
-      <c r="B158" s="13">
+      <c r="B158" s="11">
         <v>157</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="C158" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="D158" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E158" s="2">
-        <v>1</v>
-      </c>
-      <c r="F158" s="14" t="s">
+      <c r="D158" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E158" s="11">
+        <v>1</v>
+      </c>
+      <c r="F158" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="G158" s="13">
-        <v>1</v>
-      </c>
-      <c r="H158" s="13">
+      <c r="G158" s="11">
+        <v>1</v>
+      </c>
+      <c r="H158" s="11">
         <v>34</v>
       </c>
-      <c r="I158" s="14" t="s">
+      <c r="I158" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="J158" s="14" t="s">
+      <c r="J158" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="L158" s="5" t="s">
+      <c r="L158" s="12" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="13">
+    <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="13">
+      <c r="B159" s="11">
         <v>158</v>
       </c>
-      <c r="C159" s="30" t="s">
+      <c r="C159" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="D159" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E159" s="2">
-        <v>1</v>
-      </c>
-      <c r="F159" s="14" t="s">
+      <c r="D159" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="11">
+        <v>1</v>
+      </c>
+      <c r="F159" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="G159" s="13">
-        <v>1</v>
-      </c>
-      <c r="H159" s="13">
+      <c r="G159" s="11">
+        <v>1</v>
+      </c>
+      <c r="H159" s="11">
         <v>34</v>
       </c>
-      <c r="I159" s="14" t="s">
+      <c r="I159" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="J159" s="14" t="s">
+      <c r="J159" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="L159" s="5" t="s">
+      <c r="L159" s="12" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="13">
+    <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="11">
         <v>159</v>
       </c>
-      <c r="B160" s="13">
+      <c r="B160" s="11">
         <v>159</v>
       </c>
-      <c r="C160" s="30" t="s">
+      <c r="C160" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="D160" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E160" s="2">
-        <v>1</v>
-      </c>
-      <c r="F160" s="5" t="s">
+      <c r="D160" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E160" s="11">
+        <v>1</v>
+      </c>
+      <c r="F160" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="G160" s="13">
-        <v>1</v>
-      </c>
-      <c r="H160" s="13">
+      <c r="G160" s="11">
+        <v>1</v>
+      </c>
+      <c r="H160" s="11">
         <v>34</v>
       </c>
-      <c r="I160" s="14" t="s">
+      <c r="I160" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="J160" s="14" t="s">
+      <c r="J160" s="12" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="13">
+    <row r="161" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="11">
         <v>160</v>
       </c>
-      <c r="B161" s="13">
+      <c r="B161" s="11">
         <v>160</v>
       </c>
-      <c r="C161" s="30" t="s">
+      <c r="C161" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="D161" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E161" s="2">
-        <v>1</v>
-      </c>
-      <c r="F161" s="5" t="s">
+      <c r="D161" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="11">
+        <v>1</v>
+      </c>
+      <c r="F161" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="G161" s="13">
-        <v>1</v>
-      </c>
-      <c r="H161" s="13">
+      <c r="G161" s="11">
+        <v>1</v>
+      </c>
+      <c r="H161" s="11">
         <v>34</v>
       </c>
-      <c r="I161" s="14" t="s">
+      <c r="I161" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="J161" s="14" t="s">
+      <c r="J161" s="12" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="13">
+    <row r="162" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="11">
         <v>161</v>
       </c>
-      <c r="B162" s="13">
+      <c r="B162" s="11">
         <v>161</v>
       </c>
-      <c r="C162" s="30" t="s">
+      <c r="C162" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="D162" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E162" s="2">
-        <v>1</v>
-      </c>
-      <c r="F162" s="5" t="s">
+      <c r="D162" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="11">
+        <v>1</v>
+      </c>
+      <c r="F162" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="G162" s="13">
-        <v>1</v>
-      </c>
-      <c r="H162" s="13">
+      <c r="G162" s="11">
+        <v>1</v>
+      </c>
+      <c r="H162" s="11">
         <v>34</v>
       </c>
-      <c r="I162" s="14" t="s">
+      <c r="I162" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="J162" s="14" t="s">
+      <c r="J162" s="12" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="13">
+    <row r="163" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="11">
         <v>162</v>
       </c>
-      <c r="B163" s="13">
+      <c r="B163" s="11">
         <v>162</v>
       </c>
-      <c r="C163" s="30" t="s">
+      <c r="C163" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="D163" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-      <c r="F163" s="5" t="s">
+      <c r="D163" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="11">
+        <v>1</v>
+      </c>
+      <c r="F163" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="G163" s="13">
-        <v>1</v>
-      </c>
-      <c r="H163" s="13">
+      <c r="G163" s="11">
+        <v>1</v>
+      </c>
+      <c r="H163" s="11">
         <v>34</v>
       </c>
-      <c r="I163" s="14" t="s">
+      <c r="I163" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="J163" s="14" t="s">
+      <c r="J163" s="12" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="13">
+    <row r="164" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="11">
         <v>163</v>
       </c>
-      <c r="B164" s="13">
+      <c r="B164" s="11">
         <v>163</v>
       </c>
-      <c r="C164" s="30" t="s">
+      <c r="C164" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="D164" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-      <c r="F164" s="5" t="s">
+      <c r="D164" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="11">
+        <v>1</v>
+      </c>
+      <c r="F164" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="G164" s="13">
-        <v>1</v>
-      </c>
-      <c r="H164" s="13">
+      <c r="G164" s="11">
+        <v>1</v>
+      </c>
+      <c r="H164" s="11">
         <v>34</v>
       </c>
-      <c r="I164" s="14" t="s">
+      <c r="I164" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="J164" s="14" t="s">
+      <c r="J164" s="12" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="13">
+    <row r="165" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="11">
         <v>164</v>
       </c>
-      <c r="B165" s="13">
+      <c r="B165" s="11">
         <v>164</v>
       </c>
-      <c r="C165" s="30" t="s">
+      <c r="C165" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="D165" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="2">
-        <v>1</v>
-      </c>
-      <c r="F165" s="5" t="s">
+      <c r="D165" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="11">
+        <v>1</v>
+      </c>
+      <c r="F165" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="G165" s="13">
-        <v>1</v>
-      </c>
-      <c r="H165" s="13">
+      <c r="G165" s="11">
+        <v>1</v>
+      </c>
+      <c r="H165" s="11">
         <v>34</v>
       </c>
-      <c r="I165" s="14" t="s">
+      <c r="I165" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="J165" s="14" t="s">
+      <c r="J165" s="12" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="19">
+    <row r="166" spans="1:10" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="13">
         <v>165</v>
       </c>
-      <c r="B166" s="19">
+      <c r="B166" s="13">
         <v>165</v>
       </c>
-      <c r="C166" s="31" t="s">
+      <c r="C166" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="D166" s="19">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="19">
-        <v>1</v>
-      </c>
-      <c r="F166" s="20" t="s">
+      <c r="D166" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="13">
+        <v>1</v>
+      </c>
+      <c r="F166" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="G166" s="19">
+      <c r="G166" s="13">
         <v>0</v>
       </c>
-      <c r="H166" s="19">
+      <c r="H166" s="13">
         <v>33</v>
       </c>
-      <c r="I166" s="20" t="s">
+      <c r="I166" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="J166" s="20" t="s">
+      <c r="J166" s="14" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
+    <row r="167" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="13">
         <v>166</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="13">
         <v>166</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D167" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E167" s="2">
-        <v>1</v>
-      </c>
-      <c r="F167" s="2" t="s">
+      <c r="D167" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="13">
+        <v>1</v>
+      </c>
+      <c r="F167" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="G167" s="2">
-        <v>1</v>
-      </c>
-      <c r="H167" s="2">
+      <c r="G167" s="13">
+        <v>1</v>
+      </c>
+      <c r="H167" s="13">
         <v>33</v>
       </c>
-      <c r="I167" s="2" t="s">
+      <c r="I167" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="J167" s="2" t="s">
+      <c r="J167" s="13" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
+    <row r="168" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="13">
         <v>167</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="13">
         <v>167</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="D168" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-      <c r="F168" s="2" t="s">
+      <c r="D168" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="13">
+        <v>1</v>
+      </c>
+      <c r="F168" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="G168" s="2">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2">
+      <c r="G168" s="13">
+        <v>1</v>
+      </c>
+      <c r="H168" s="13">
         <v>33</v>
       </c>
-      <c r="I168" s="2" t="s">
+      <c r="I168" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="13" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
+    <row r="169" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="13">
         <v>168</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="13">
         <v>168</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="D169" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="2" t="s">
+      <c r="D169" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="13">
+        <v>1</v>
+      </c>
+      <c r="F169" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="G169" s="2">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2">
+      <c r="G169" s="13">
+        <v>1</v>
+      </c>
+      <c r="H169" s="13">
         <v>33</v>
       </c>
-      <c r="I169" s="2" t="s">
+      <c r="I169" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="13" t="s">
         <v>604</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="25">
+        <v>169</v>
+      </c>
+      <c r="B170" s="25">
+        <v>169</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D170" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="25">
+        <v>1</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="G170" s="25">
+        <v>0</v>
+      </c>
+      <c r="H170" s="25">
+        <v>36</v>
+      </c>
+      <c r="I170" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="J170" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="25">
+        <v>170</v>
+      </c>
+      <c r="B171" s="25">
+        <v>170</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D171" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="25">
+        <v>1</v>
+      </c>
+      <c r="F171" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="G171" s="25">
+        <v>0</v>
+      </c>
+      <c r="H171" s="25">
+        <v>38</v>
+      </c>
+      <c r="I171" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="J171" s="27" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.3/item_config.xlsx
+++ b/config_11.3/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="605">
   <si>
     <t>id|行号</t>
   </si>
@@ -2432,6 +2432,42 @@
   <si>
     <t>cwzp_icon_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
   </si>
 </sst>
 </file>
@@ -2589,11 +2625,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2612,37 +2645,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2650,23 +2662,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2677,35 +2677,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2985,5696 +3000,5596 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q166"/>
+  <dimension ref="A1:Q169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.25" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
-    <col min="10" max="10" width="46.375" customWidth="1"/>
-    <col min="11" max="11" width="21.75" customWidth="1"/>
-    <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.25" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="15" max="17" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="23.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="46.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="33.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="2" customWidth="1"/>
+    <col min="15" max="17" width="12.75" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
         <v>21</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="D19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="D21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="D22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="D23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="D25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>101</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="D26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>0</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="D28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="3" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+    </row>
+    <row r="29" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="15">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
         <v>4</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="7" t="s">
+      <c r="K29" s="7"/>
+      <c r="L29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="D30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="K30" s="5"/>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
         <v>17</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
         <v>18</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
         <v>19</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
         <v>20</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="D35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="D36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="3" t="s">
+      <c r="K36" s="5"/>
+      <c r="L36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="D37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
         <v>5</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="3" t="s">
+      <c r="K37" s="5"/>
+      <c r="L37" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="D38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
         <v>10</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="3" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>0</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>0</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="D42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="6" t="s">
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D43" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="D43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
         <v>9</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="3" t="s">
+      <c r="K43" s="5"/>
+      <c r="L43" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="D44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
         <v>8</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="3" t="s">
+      <c r="K44" s="5"/>
+      <c r="L44" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="D45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
         <v>6</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="3" t="s">
+      <c r="K45" s="5"/>
+      <c r="L45" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="D46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
         <v>7</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="3" t="s">
+      <c r="K46" s="5"/>
+      <c r="L46" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="D47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="D48" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>16</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="D49" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>15</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="D50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K50" s="6"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="D51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
         <v>11</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="10" t="s">
+      <c r="D52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
         <v>10</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="D53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>0</v>
       </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="6" t="s">
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D54" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="D54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
         <v>12</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D55" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="D55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
         <v>14</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D56" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="D56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
         <v>13</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="11" t="s">
+      <c r="D57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
         <v>6</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D58" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="D58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
         <v>0</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D59" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="10" t="s">
+      <c r="D59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
         <v>2</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="D60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="6" t="s">
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="10" t="s">
+      <c r="D61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
         <v>3</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>60</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D62" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="D62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
         <v>15</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="J62" s="13" t="s">
+      <c r="J62" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="D63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="s">
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="L63" s="6" t="s">
+      <c r="L63" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D64" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="10" t="s">
+      <c r="D64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
         <v>21</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="J64" s="22" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D65" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="11" t="s">
+      <c r="D65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
         <v>22</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="J65" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="L65" s="6" t="s">
+      <c r="L65" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>64</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D66" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="10" t="s">
+      <c r="D66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <v>0</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="2">
         <v>23</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="22" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>65</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D67" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="D67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="2">
         <v>0</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="2">
         <v>24</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="22" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>66</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D68" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="10" t="s">
+      <c r="D68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>0</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>25</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="22" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>67</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D69" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="10" t="s">
+      <c r="D69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>0</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>26</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="J69" s="22" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>68</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D70" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="D70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="6" t="s">
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J70" s="13" t="s">
+      <c r="J70" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="L70" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>69</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D71" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="11" t="s">
+      <c r="D71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="s">
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="22" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>70</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="11" t="s">
+      <c r="D72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6" t="s">
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J72" s="13" t="s">
+      <c r="J72" s="22" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>71</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D73" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="10" t="s">
+      <c r="D73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="11" t="s">
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="L73" s="6" t="s">
+      <c r="L73" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>72</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="10" t="s">
+      <c r="D74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6" t="s">
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="L74" s="6" t="s">
+      <c r="L74" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>73</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D75" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="11" t="s">
+      <c r="D75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="6" t="s">
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="L75" s="6" t="s">
+      <c r="L75" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>74</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D76" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="11" t="s">
+      <c r="D76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>0</v>
       </c>
-      <c r="H76" s="3">
-        <v>1</v>
-      </c>
-      <c r="I76" s="6" t="s">
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="L76" s="6"/>
-      <c r="N76">
+      <c r="L76" s="5"/>
+      <c r="N76" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="27" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>75</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D77" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="10" t="s">
+      <c r="D77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="3">
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2">
         <v>-100</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J77" s="16" t="s">
+      <c r="J77" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="L77" s="6" t="s">
+      <c r="L77" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>76</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="D78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" s="6" t="s">
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J78" s="16" t="s">
+      <c r="J78" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="L78" s="6"/>
+      <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>78</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D79" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="11" t="s">
+      <c r="D79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="2">
         <v>0</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="2">
         <v>23</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="J79" s="22" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>79</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D80" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E80" s="3">
-        <v>1</v>
-      </c>
-      <c r="F80" s="11" t="s">
+      <c r="D80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
         <v>23</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="J80" s="13" t="s">
+      <c r="J80" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="L80" s="6" t="s">
+      <c r="L80" s="5" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>80</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="11" t="s">
+      <c r="D81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2">
         <v>24</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J81" s="16" t="s">
+      <c r="J81" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="L81" s="6" t="s">
+      <c r="L81" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>81</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D82" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1</v>
-      </c>
-      <c r="F82" s="11" t="s">
+      <c r="D82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3">
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
         <v>25</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="J82" s="16" t="s">
+      <c r="J82" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="L82" s="6" t="s">
+      <c r="L82" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="15">
+      <c r="A83" s="9">
         <v>82</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="9">
         <v>82</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="D83" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="15">
-        <v>1</v>
-      </c>
-      <c r="F83" s="14" t="s">
+      <c r="D83" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1</v>
+      </c>
+      <c r="F83" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="G83" s="15">
-        <v>1</v>
-      </c>
-      <c r="H83" s="15">
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="9">
         <v>22</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="J83" s="17" t="s">
+      <c r="J83" s="25" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="19">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="11">
         <v>83</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="D84" s="19">
-        <v>-1</v>
-      </c>
-      <c r="E84" s="19">
-        <v>1</v>
-      </c>
-      <c r="F84" s="20" t="s">
+      <c r="D84" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G84" s="11">
         <v>0</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H84" s="11">
         <v>23</v>
       </c>
-      <c r="I84" s="21" t="s">
+      <c r="I84" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="J84" s="22" t="s">
+      <c r="J84" s="27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>84</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D85" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E85" s="3">
-        <v>1</v>
-      </c>
-      <c r="F85" s="11" t="s">
+      <c r="D85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="3">
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
         <v>24</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>85</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E86" s="3">
-        <v>1</v>
-      </c>
-      <c r="F86" s="11" t="s">
+      <c r="D86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="3">
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
         <v>25</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I86" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>86</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D87" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E87" s="3">
-        <v>1</v>
-      </c>
-      <c r="F87" s="11" t="s">
+      <c r="D87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="3">
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
         <v>26</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="I87" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>87</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D88" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1</v>
-      </c>
-      <c r="F88" s="11" t="s">
+      <c r="D88" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="3">
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2">
         <v>27</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>88</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D89" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1</v>
-      </c>
-      <c r="F89" s="11" t="s">
+      <c r="D89" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2">
         <v>28</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>89</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D90" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1</v>
-      </c>
-      <c r="F90" s="11" t="s">
+      <c r="D90" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="3">
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
         <v>29</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>90</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E91" s="3">
-        <v>1</v>
-      </c>
-      <c r="F91" s="11" t="s">
+      <c r="D91" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
         <v>30</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J91" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>91</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D92" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E92" s="3">
-        <v>1</v>
-      </c>
-      <c r="F92" s="11" t="s">
+      <c r="D92" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-      <c r="H92" s="3">
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2">
         <v>31</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>92</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1</v>
-      </c>
-      <c r="F93" s="11" t="s">
+      <c r="D93" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
-      <c r="H93" s="3">
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
         <v>32</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>93</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1</v>
-      </c>
-      <c r="F94" s="11" t="s">
+      <c r="D94" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="G94" s="2">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2">
         <v>-100</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L94" s="6" t="s">
+      <c r="L94" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="2">
         <v>12</v>
       </c>
-      <c r="P94">
+      <c r="P94" s="2">
         <v>1579795200</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" s="2">
         <v>1581177599</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>94</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D95" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E95" s="3">
-        <v>1</v>
-      </c>
-      <c r="F95" s="11" t="s">
+      <c r="D95" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="2">
         <v>0</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="2">
         <v>33</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>95</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D96" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E96" s="3">
-        <v>1</v>
-      </c>
-      <c r="F96" s="11" t="s">
+      <c r="D96" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="2">
         <v>0</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="2">
         <v>34</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>96</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D97" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1</v>
-      </c>
-      <c r="F97" s="11" t="s">
+      <c r="D97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="G97" s="3">
-        <v>1</v>
-      </c>
-      <c r="H97" s="3">
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2">
         <v>35</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="J97" s="5" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>97</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D98" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-      <c r="F98" s="11" t="s">
+      <c r="D98" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="G98" s="3">
-        <v>1</v>
-      </c>
-      <c r="H98" s="3">
+      <c r="G98" s="2">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2">
         <v>36</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J98" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>98</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D99" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E99" s="3">
-        <v>1</v>
-      </c>
-      <c r="F99" s="11" t="s">
+      <c r="D99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="G99" s="3">
-        <v>1</v>
-      </c>
-      <c r="H99" s="3">
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2">
         <v>37</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I99" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J99" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>99</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1</v>
-      </c>
-      <c r="F100" s="11" t="s">
+      <c r="D100" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2">
         <v>38</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I100" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>100</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D101" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1</v>
-      </c>
-      <c r="F101" s="11" t="s">
+      <c r="D101" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
         <v>39</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I101" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J101" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>101</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1</v>
-      </c>
-      <c r="F102" s="11" t="s">
+      <c r="D102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="G102" s="3">
-        <v>1</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2">
         <v>40</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I102" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>102</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D103" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E103" s="3">
-        <v>1</v>
-      </c>
-      <c r="F103" s="11" t="s">
+      <c r="D103" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G103" s="3">
-        <v>1</v>
-      </c>
-      <c r="H103" s="3">
+      <c r="G103" s="2">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2">
         <v>41</v>
       </c>
-      <c r="I103" s="6" t="s">
+      <c r="I103" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="J103" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="N103">
+      <c r="N103" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>103</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D104" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E104" s="3">
-        <v>1</v>
-      </c>
-      <c r="F104" s="11" t="s">
+      <c r="D104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="G104" s="3">
-        <v>1</v>
-      </c>
-      <c r="H104" s="3">
+      <c r="G104" s="2">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2">
         <v>42</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I104" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J104" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>104</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D105" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E105" s="3">
-        <v>1</v>
-      </c>
-      <c r="F105" s="11" t="s">
+      <c r="D105" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="G105" s="3">
-        <v>1</v>
-      </c>
-      <c r="H105" s="3">
+      <c r="G105" s="2">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2">
         <v>43</v>
       </c>
-      <c r="I105" s="6" t="s">
+      <c r="I105" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="J105" s="6" t="s">
+      <c r="J105" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="N105">
+      <c r="N105" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>105</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D106" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E106" s="3">
-        <v>1</v>
-      </c>
-      <c r="F106" s="11" t="s">
+      <c r="D106" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="G106" s="3">
-        <v>1</v>
-      </c>
-      <c r="H106" s="3">
+      <c r="G106" s="2">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2">
         <v>44</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="I106" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="J106" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="N106">
+      <c r="N106" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>106</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="D107" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E107" s="3">
-        <v>1</v>
-      </c>
-      <c r="F107" s="10" t="s">
+      <c r="D107" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="G107" s="3">
-        <v>1</v>
-      </c>
-      <c r="H107" s="3">
+      <c r="G107" s="2">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2">
         <v>32</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="I107" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="N107">
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="N107" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>107</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="D108" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E108" s="3">
-        <v>1</v>
-      </c>
-      <c r="F108" s="10" t="s">
+      <c r="D108" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G108" s="3">
-        <v>1</v>
-      </c>
-      <c r="H108" s="3">
+      <c r="G108" s="2">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2">
         <v>33</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="I108" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="N108">
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="N108" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>108</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D109" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E109" s="3">
-        <v>1</v>
-      </c>
-      <c r="F109" s="11" t="s">
+      <c r="D109" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="G109" s="3">
-        <v>1</v>
-      </c>
-      <c r="H109" s="3">
+      <c r="G109" s="2">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2">
         <v>33</v>
       </c>
-      <c r="I109" s="6" t="s">
+      <c r="I109" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>109</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="D110" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E110" s="3">
-        <v>1</v>
-      </c>
-      <c r="F110" s="11" t="s">
+      <c r="D110" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="G110" s="3">
-        <v>1</v>
-      </c>
-      <c r="H110" s="3">
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2">
         <v>34</v>
       </c>
-      <c r="I110" s="6" t="s">
+      <c r="I110" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J110" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="L110" s="6"/>
+      <c r="L110" s="5"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>110</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J111" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="L111" s="6" t="s">
+      <c r="L111" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>111</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J112" s="6" t="s">
+      <c r="J112" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="L112" s="6" t="s">
+      <c r="L112" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>112</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="D113" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J113" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="L113" s="6" t="s">
+      <c r="L113" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>113</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="D114" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6" t="s">
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6" t="s">
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="J114" s="6" t="s">
+      <c r="J114" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L114" s="6" t="s">
+      <c r="L114" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>114</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="D115" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="6" t="s">
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="J115" s="6" t="s">
+      <c r="J115" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="L115" s="6" t="s">
+      <c r="L115" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>115</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="D116" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
-      <c r="F116" s="6" t="s">
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="6" t="s">
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="J116" s="6" t="s">
+      <c r="J116" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L116" s="6" t="s">
+      <c r="L116" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>116</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D117" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-      <c r="F117" s="10" t="s">
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="2">
         <v>0</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="2">
         <v>33</v>
       </c>
-      <c r="I117" s="6" t="s">
+      <c r="I117" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="J117" s="6" t="s">
+      <c r="J117" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>117</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="D118" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="10" t="s">
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="2">
         <v>0</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="2">
         <v>36</v>
       </c>
-      <c r="I118" s="6" t="s">
+      <c r="I118" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="J118" s="6" t="s">
+      <c r="J118" s="5" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>118</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="D119" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="10" t="s">
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="2">
         <v>0</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="2">
         <v>37</v>
       </c>
-      <c r="I119" s="6" t="s">
+      <c r="I119" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="J119" s="6" t="s">
+      <c r="J119" s="5" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>119</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="D120" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="2">
         <v>0</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="2">
         <v>38</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I120" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="J120" s="6" t="s">
+      <c r="J120" s="5" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>120</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D121" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="3">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="2">
         <v>0</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="2">
         <v>39</v>
       </c>
-      <c r="I121" s="6" t="s">
+      <c r="I121" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="J121" s="6" t="s">
+      <c r="J121" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>121</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="D122" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="3">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="2">
         <v>0</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="2">
         <v>40</v>
       </c>
-      <c r="I122" s="6" t="s">
+      <c r="I122" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="J122" s="6" t="s">
+      <c r="J122" s="5" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>122</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="D123" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E123" s="3">
-        <v>1</v>
-      </c>
-      <c r="F123" s="10" t="s">
+      <c r="D123" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="G123" s="3">
-        <v>1</v>
-      </c>
-      <c r="H123" s="3">
+      <c r="G123" s="2">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2">
         <v>41</v>
       </c>
-      <c r="I123" s="6" t="s">
+      <c r="I123" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="J123" s="6" t="s">
+      <c r="J123" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>123</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="D124" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E124" s="3">
-        <v>1</v>
-      </c>
-      <c r="F124" s="10" t="s">
+      <c r="D124" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="3">
+      <c r="G124" s="2">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2">
         <v>42</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="I124" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="J124" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>124</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="D125" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E125" s="3">
-        <v>1</v>
-      </c>
-      <c r="F125" s="10" t="s">
+      <c r="D125" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="G125" s="3">
-        <v>1</v>
-      </c>
-      <c r="H125" s="3">
+      <c r="G125" s="2">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2">
         <v>43</v>
       </c>
-      <c r="I125" s="6" t="s">
+      <c r="I125" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="J125" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>125</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="D126" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E126" s="3">
-        <v>1</v>
-      </c>
-      <c r="F126" s="10" t="s">
+      <c r="D126" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G126" s="3">
-        <v>1</v>
-      </c>
-      <c r="H126" s="3">
+      <c r="G126" s="2">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2">
         <v>44</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="I126" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>126</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="D127" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E127" s="3">
-        <v>1</v>
-      </c>
-      <c r="F127" s="10" t="s">
+      <c r="D127" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
-      <c r="H127" s="3">
+      <c r="G127" s="2">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2">
         <v>45</v>
       </c>
-      <c r="I127" s="6" t="s">
+      <c r="I127" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>127</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="D128" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E128" s="3">
-        <v>1</v>
-      </c>
-      <c r="F128" s="10" t="s">
+      <c r="D128" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="G128" s="3">
-        <v>1</v>
-      </c>
-      <c r="H128" s="3">
+      <c r="G128" s="2">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2">
         <v>46</v>
       </c>
-      <c r="I128" s="6" t="s">
+      <c r="I128" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="J128" s="6" t="s">
+      <c r="J128" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>128</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D129" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E129" s="3">
-        <v>1</v>
-      </c>
-      <c r="F129" s="10" t="s">
+      <c r="D129" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
-      <c r="H129" s="3">
+      <c r="G129" s="2">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2">
         <v>47</v>
       </c>
-      <c r="I129" s="6" t="s">
+      <c r="I129" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="J129" s="6" t="s">
+      <c r="J129" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="N129">
+      <c r="N129" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>129</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="D130" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E130" s="3">
-        <v>1</v>
-      </c>
-      <c r="F130" s="10" t="s">
+      <c r="D130" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G130" s="3">
-        <v>1</v>
-      </c>
-      <c r="H130" s="3">
+      <c r="G130" s="2">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2">
         <v>48</v>
       </c>
-      <c r="I130" s="6" t="s">
+      <c r="I130" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="J130" s="6" t="s">
+      <c r="J130" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="N130">
+      <c r="N130" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="D131" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E131" s="3">
-        <v>1</v>
-      </c>
-      <c r="F131" s="10" t="s">
+      <c r="D131" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="2">
         <v>0</v>
       </c>
-      <c r="H131" s="3">
-        <v>1</v>
-      </c>
-      <c r="I131" s="6" t="s">
+      <c r="H131" s="2">
+        <v>1</v>
+      </c>
+      <c r="I131" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="J131" s="6" t="s">
+      <c r="J131" s="5" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+      <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>131</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D132" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E132" s="3">
-        <v>1</v>
-      </c>
-      <c r="F132" s="10" t="s">
+      <c r="D132" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G132" s="2">
         <v>0</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="2">
         <v>33</v>
       </c>
-      <c r="I132" s="6" t="s">
+      <c r="I132" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J132" s="6" t="s">
+      <c r="J132" s="5" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>132</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D133" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E133" s="3">
-        <v>1</v>
-      </c>
-      <c r="F133" s="10" t="s">
+      <c r="D133" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G133" s="2">
         <v>0</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="2">
         <v>33</v>
       </c>
-      <c r="I133" s="6" t="s">
+      <c r="I133" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J133" s="6" t="s">
+      <c r="J133" s="5" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>133</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D134" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E134" s="3">
-        <v>1</v>
-      </c>
-      <c r="F134" s="10" t="s">
+      <c r="D134" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="2">
         <v>0</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="2">
         <v>33</v>
       </c>
-      <c r="I134" s="6" t="s">
+      <c r="I134" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J134" s="6" t="s">
+      <c r="J134" s="5" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>134</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D135" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E135" s="3">
-        <v>1</v>
-      </c>
-      <c r="F135" s="10" t="s">
+      <c r="D135" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="2">
         <v>0</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="2">
         <v>33</v>
       </c>
-      <c r="I135" s="6" t="s">
+      <c r="I135" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J135" s="6" t="s">
+      <c r="J135" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>135</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D136" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E136" s="3">
-        <v>1</v>
-      </c>
-      <c r="F136" s="10" t="s">
+      <c r="D136" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="2">
         <v>0</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="2">
         <v>33</v>
       </c>
-      <c r="I136" s="6" t="s">
+      <c r="I136" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J136" s="6" t="s">
+      <c r="J136" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>136</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D137" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E137" s="3">
-        <v>1</v>
-      </c>
-      <c r="F137" s="10" t="s">
+      <c r="D137" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="2">
         <v>0</v>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="2">
         <v>33</v>
       </c>
-      <c r="I137" s="6" t="s">
+      <c r="I137" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J137" s="6" t="s">
+      <c r="J137" s="5" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>137</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D138" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E138" s="3">
-        <v>1</v>
-      </c>
-      <c r="F138" s="10" t="s">
+      <c r="D138" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="2">
         <v>0</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="2">
         <v>33</v>
       </c>
-      <c r="I138" s="6" t="s">
+      <c r="I138" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J138" s="6" t="s">
+      <c r="J138" s="5" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>138</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D139" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E139" s="3">
-        <v>1</v>
-      </c>
-      <c r="F139" s="10" t="s">
+      <c r="D139" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="2">
         <v>0</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="2">
         <v>33</v>
       </c>
-      <c r="I139" s="6" t="s">
+      <c r="I139" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J139" s="6" t="s">
+      <c r="J139" s="5" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>139</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D140" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="D140" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="2">
         <v>0</v>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="2">
         <v>33</v>
       </c>
-      <c r="I140" s="6" t="s">
+      <c r="I140" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J140" s="6" t="s">
+      <c r="J140" s="5" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>140</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D141" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E141" s="3">
-        <v>1</v>
-      </c>
-      <c r="F141" s="10" t="s">
+      <c r="D141" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="G141" s="3">
+      <c r="G141" s="2">
         <v>0</v>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="2">
         <v>33</v>
       </c>
-      <c r="I141" s="6" t="s">
+      <c r="I141" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="J141" s="6" t="s">
+      <c r="J141" s="5" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>141</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D142" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E142" s="3">
-        <v>1</v>
-      </c>
-      <c r="F142" s="10" t="s">
+      <c r="D142" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="2">
         <v>0</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="2">
         <v>33</v>
       </c>
-      <c r="I142" s="6" t="s">
+      <c r="I142" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="J142" s="6" t="s">
+      <c r="J142" s="5" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>142</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D143" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E143" s="3">
-        <v>1</v>
-      </c>
-      <c r="F143" s="10" t="s">
+      <c r="D143" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="G143" s="3">
+      <c r="G143" s="2">
         <v>0</v>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="2">
         <v>33</v>
       </c>
-      <c r="I143" s="6" t="s">
+      <c r="I143" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="J143" s="6" t="s">
+      <c r="J143" s="5" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D144" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E144" s="3">
-        <v>1</v>
-      </c>
-      <c r="F144" s="10" t="s">
+      <c r="D144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="G144" s="3">
+      <c r="G144" s="2">
         <v>0</v>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="2">
         <v>33</v>
       </c>
-      <c r="I144" s="6" t="s">
+      <c r="I144" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="J144" s="6" t="s">
+      <c r="J144" s="5" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>144</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="D145" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E145" s="3">
-        <v>1</v>
-      </c>
-      <c r="F145" s="10" t="s">
+      <c r="D145" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="G145" s="3">
+      <c r="G145" s="2">
         <v>0</v>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="2">
         <v>33</v>
       </c>
-      <c r="I145" s="6" t="s">
+      <c r="I145" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="J145" s="6" t="s">
+      <c r="J145" s="5" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="23">
+      <c r="A146" s="13">
         <v>145</v>
       </c>
-      <c r="B146" s="23">
+      <c r="B146" s="13">
         <v>145</v>
       </c>
-      <c r="C146" s="24" t="s">
+      <c r="C146" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="D146" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E146" s="23">
-        <v>1</v>
-      </c>
-      <c r="F146" s="25" t="s">
+      <c r="D146" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E146" s="13">
+        <v>1</v>
+      </c>
+      <c r="F146" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="G146" s="23">
+      <c r="G146" s="13">
         <v>0</v>
       </c>
-      <c r="H146" s="23">
+      <c r="H146" s="13">
         <v>33</v>
       </c>
-      <c r="I146" s="26" t="s">
+      <c r="I146" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="J146" s="27" t="s">
+      <c r="J146" s="15" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="23">
+      <c r="A147" s="13">
         <v>146</v>
       </c>
-      <c r="B147" s="23">
+      <c r="B147" s="13">
         <v>146</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="D147" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E147" s="23">
-        <v>1</v>
-      </c>
-      <c r="F147" s="25" t="s">
+      <c r="D147" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="13">
+        <v>1</v>
+      </c>
+      <c r="F147" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="G147" s="23">
+      <c r="G147" s="13">
         <v>0</v>
       </c>
-      <c r="H147" s="23">
+      <c r="H147" s="13">
         <v>33</v>
       </c>
-      <c r="I147" s="26" t="s">
+      <c r="I147" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="J147" s="27" t="s">
+      <c r="J147" s="15" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="23">
+      <c r="A148" s="13">
         <v>147</v>
       </c>
-      <c r="B148" s="23">
+      <c r="B148" s="13">
         <v>147</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="D148" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E148" s="23">
-        <v>1</v>
-      </c>
-      <c r="F148" s="25" t="s">
+      <c r="D148" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E148" s="13">
+        <v>1</v>
+      </c>
+      <c r="F148" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="G148" s="23">
+      <c r="G148" s="13">
         <v>0</v>
       </c>
-      <c r="H148" s="23">
+      <c r="H148" s="13">
         <v>33</v>
       </c>
-      <c r="I148" s="26" t="s">
+      <c r="I148" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="J148" s="27" t="s">
+      <c r="J148" s="15" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="23">
+      <c r="A149" s="13">
         <v>148</v>
       </c>
-      <c r="B149" s="23">
+      <c r="B149" s="13">
         <v>148</v>
       </c>
-      <c r="C149" s="24" t="s">
+      <c r="C149" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="D149" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E149" s="23">
-        <v>1</v>
-      </c>
-      <c r="F149" s="25" t="s">
+      <c r="D149" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E149" s="13">
+        <v>1</v>
+      </c>
+      <c r="F149" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="G149" s="23">
+      <c r="G149" s="13">
         <v>0</v>
       </c>
-      <c r="H149" s="23">
+      <c r="H149" s="13">
         <v>33</v>
       </c>
-      <c r="I149" s="26" t="s">
+      <c r="I149" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="J149" s="27" t="s">
+      <c r="J149" s="15" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="23">
+      <c r="A150" s="13">
         <v>149</v>
       </c>
-      <c r="B150" s="23">
+      <c r="B150" s="13">
         <v>149</v>
       </c>
-      <c r="C150" s="24" t="s">
+      <c r="C150" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="D150" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E150" s="23">
-        <v>1</v>
-      </c>
-      <c r="F150" s="25" t="s">
+      <c r="D150" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E150" s="13">
+        <v>1</v>
+      </c>
+      <c r="F150" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="G150" s="23">
+      <c r="G150" s="13">
         <v>0</v>
       </c>
-      <c r="H150" s="23">
+      <c r="H150" s="13">
         <v>33</v>
       </c>
-      <c r="I150" s="26" t="s">
+      <c r="I150" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="J150" s="27" t="s">
+      <c r="J150" s="15" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="23">
+      <c r="A151" s="13">
         <v>150</v>
       </c>
-      <c r="B151" s="23">
+      <c r="B151" s="13">
         <v>150</v>
       </c>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="D151" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="23">
-        <v>1</v>
-      </c>
-      <c r="F151" s="25" t="s">
+      <c r="D151" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="13">
+        <v>1</v>
+      </c>
+      <c r="F151" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="G151" s="23">
+      <c r="G151" s="13">
         <v>0</v>
       </c>
-      <c r="H151" s="23">
+      <c r="H151" s="13">
         <v>33</v>
       </c>
-      <c r="I151" s="26" t="s">
+      <c r="I151" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="J151" s="27" t="s">
+      <c r="J151" s="15" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="23">
+      <c r="A152" s="13">
         <v>151</v>
       </c>
-      <c r="B152" s="23">
+      <c r="B152" s="13">
         <v>151</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="D152" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E152" s="23">
-        <v>1</v>
-      </c>
-      <c r="F152" s="25" t="s">
+      <c r="D152" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E152" s="13">
+        <v>1</v>
+      </c>
+      <c r="F152" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="G152" s="23">
+      <c r="G152" s="13">
         <v>0</v>
       </c>
-      <c r="H152" s="23">
+      <c r="H152" s="13">
         <v>33</v>
       </c>
-      <c r="I152" s="26" t="s">
+      <c r="I152" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="J152" s="27" t="s">
+      <c r="J152" s="15" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="23">
+      <c r="A153" s="13">
         <v>152</v>
       </c>
-      <c r="B153" s="23">
+      <c r="B153" s="13">
         <v>152</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C153" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="D153" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E153" s="23">
-        <v>1</v>
-      </c>
-      <c r="F153" s="25" t="s">
+      <c r="D153" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E153" s="13">
+        <v>1</v>
+      </c>
+      <c r="F153" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="G153" s="23">
+      <c r="G153" s="13">
         <v>0</v>
       </c>
-      <c r="H153" s="23">
+      <c r="H153" s="13">
         <v>33</v>
       </c>
-      <c r="I153" s="26" t="s">
+      <c r="I153" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="J153" s="27" t="s">
+      <c r="J153" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="23">
+      <c r="A154" s="13">
         <v>153</v>
       </c>
-      <c r="B154" s="23">
+      <c r="B154" s="13">
         <v>153</v>
       </c>
-      <c r="C154" s="24" t="s">
+      <c r="C154" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="D154" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E154" s="23">
-        <v>1</v>
-      </c>
-      <c r="F154" s="25" t="s">
+      <c r="D154" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E154" s="13">
+        <v>1</v>
+      </c>
+      <c r="F154" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="G154" s="23">
+      <c r="G154" s="13">
         <v>0</v>
       </c>
-      <c r="H154" s="23">
+      <c r="H154" s="13">
         <v>33</v>
       </c>
-      <c r="I154" s="26" t="s">
+      <c r="I154" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="J154" s="27" t="s">
+      <c r="J154" s="15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>154</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="D155" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="3">
-        <v>1</v>
-      </c>
-      <c r="F155" s="10" t="s">
+      <c r="D155" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1</v>
+      </c>
+      <c r="F155" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="2">
         <v>0</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="2">
         <v>33</v>
       </c>
-      <c r="I155" s="6" t="s">
+      <c r="I155" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="J155" s="6" t="s">
+      <c r="J155" s="5" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="28">
+      <c r="A156" s="16">
         <v>155</v>
       </c>
-      <c r="B156" s="28">
+      <c r="B156" s="16">
         <v>155</v>
       </c>
       <c r="C156" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="D156" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E156" s="28">
-        <v>1</v>
-      </c>
-      <c r="F156" s="30" t="s">
+      <c r="D156" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="16">
+        <v>1</v>
+      </c>
+      <c r="F156" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="G156" s="28">
+      <c r="G156" s="16">
         <v>0</v>
       </c>
-      <c r="H156" s="28">
+      <c r="H156" s="16">
         <v>33</v>
       </c>
-      <c r="I156" s="31" t="s">
+      <c r="I156" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="J156" s="32" t="s">
+      <c r="J156" s="18" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="23">
+      <c r="A157" s="13">
         <v>156</v>
       </c>
-      <c r="B157" s="23">
+      <c r="B157" s="13">
         <v>156</v>
       </c>
-      <c r="C157" s="33" t="s">
+      <c r="C157" s="30" t="s">
         <v>575</v>
       </c>
-      <c r="D157" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E157" s="3">
-        <v>1</v>
-      </c>
-      <c r="F157" s="25" t="s">
+      <c r="D157" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1</v>
+      </c>
+      <c r="F157" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="G157" s="23">
-        <v>1</v>
-      </c>
-      <c r="H157" s="23">
+      <c r="G157" s="13">
+        <v>1</v>
+      </c>
+      <c r="H157" s="13">
         <v>34</v>
       </c>
-      <c r="I157" s="26" t="s">
+      <c r="I157" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="J157" s="26" t="s">
+      <c r="J157" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="L157" s="6" t="s">
+      <c r="L157" s="5" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="23">
+      <c r="A158" s="13">
         <v>157</v>
       </c>
-      <c r="B158" s="23">
+      <c r="B158" s="13">
         <v>157</v>
       </c>
-      <c r="C158" s="33" t="s">
+      <c r="C158" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="D158" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E158" s="3">
-        <v>1</v>
-      </c>
-      <c r="F158" s="25" t="s">
+      <c r="D158" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1</v>
+      </c>
+      <c r="F158" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="G158" s="23">
-        <v>1</v>
-      </c>
-      <c r="H158" s="23">
+      <c r="G158" s="13">
+        <v>1</v>
+      </c>
+      <c r="H158" s="13">
         <v>34</v>
       </c>
-      <c r="I158" s="26" t="s">
+      <c r="I158" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="J158" s="26" t="s">
+      <c r="J158" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="L158" s="6" t="s">
+      <c r="L158" s="5" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="23">
+      <c r="A159" s="13">
         <v>158</v>
       </c>
-      <c r="B159" s="23">
+      <c r="B159" s="13">
         <v>158</v>
       </c>
-      <c r="C159" s="33" t="s">
+      <c r="C159" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="D159" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E159" s="3">
-        <v>1</v>
-      </c>
-      <c r="F159" s="25" t="s">
+      <c r="D159" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+      <c r="F159" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="G159" s="23">
-        <v>1</v>
-      </c>
-      <c r="H159" s="23">
+      <c r="G159" s="13">
+        <v>1</v>
+      </c>
+      <c r="H159" s="13">
         <v>34</v>
       </c>
-      <c r="I159" s="26" t="s">
+      <c r="I159" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="J159" s="26" t="s">
+      <c r="J159" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="L159" s="6" t="s">
+      <c r="L159" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="23">
+      <c r="A160" s="13">
         <v>159</v>
       </c>
-      <c r="B160" s="23">
+      <c r="B160" s="13">
         <v>159</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="C160" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="D160" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E160" s="3">
-        <v>1</v>
-      </c>
-      <c r="F160" s="10" t="s">
+      <c r="D160" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
+      </c>
+      <c r="F160" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="G160" s="23">
-        <v>1</v>
-      </c>
-      <c r="H160" s="23">
+      <c r="G160" s="13">
+        <v>1</v>
+      </c>
+      <c r="H160" s="13">
         <v>34</v>
       </c>
-      <c r="I160" s="26" t="s">
+      <c r="I160" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="J160" s="26" t="s">
+      <c r="J160" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="23">
+      <c r="A161" s="13">
         <v>160</v>
       </c>
-      <c r="B161" s="23">
+      <c r="B161" s="13">
         <v>160</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="D161" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E161" s="3">
-        <v>1</v>
-      </c>
-      <c r="F161" s="10" t="s">
+      <c r="D161" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="G161" s="23">
-        <v>1</v>
-      </c>
-      <c r="H161" s="23">
+      <c r="G161" s="13">
+        <v>1</v>
+      </c>
+      <c r="H161" s="13">
         <v>34</v>
       </c>
-      <c r="I161" s="26" t="s">
+      <c r="I161" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="J161" s="26" t="s">
+      <c r="J161" s="14" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="23">
+      <c r="A162" s="13">
         <v>161</v>
       </c>
-      <c r="B162" s="23">
+      <c r="B162" s="13">
         <v>161</v>
       </c>
-      <c r="C162" s="33" t="s">
+      <c r="C162" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="D162" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E162" s="3">
-        <v>1</v>
-      </c>
-      <c r="F162" s="10" t="s">
+      <c r="D162" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="G162" s="23">
-        <v>1</v>
-      </c>
-      <c r="H162" s="23">
+      <c r="G162" s="13">
+        <v>1</v>
+      </c>
+      <c r="H162" s="13">
         <v>34</v>
       </c>
-      <c r="I162" s="26" t="s">
+      <c r="I162" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="J162" s="26" t="s">
+      <c r="J162" s="14" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="23">
+      <c r="A163" s="13">
         <v>162</v>
       </c>
-      <c r="B163" s="23">
+      <c r="B163" s="13">
         <v>162</v>
       </c>
-      <c r="C163" s="33" t="s">
+      <c r="C163" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="D163" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E163" s="3">
-        <v>1</v>
-      </c>
-      <c r="F163" s="10" t="s">
+      <c r="D163" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="G163" s="23">
-        <v>1</v>
-      </c>
-      <c r="H163" s="23">
+      <c r="G163" s="13">
+        <v>1</v>
+      </c>
+      <c r="H163" s="13">
         <v>34</v>
       </c>
-      <c r="I163" s="26" t="s">
+      <c r="I163" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="J163" s="26" t="s">
+      <c r="J163" s="14" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="23">
+      <c r="A164" s="13">
         <v>163</v>
       </c>
-      <c r="B164" s="23">
+      <c r="B164" s="13">
         <v>163</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="D164" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E164" s="3">
-        <v>1</v>
-      </c>
-      <c r="F164" s="10" t="s">
+      <c r="D164" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="G164" s="23">
-        <v>1</v>
-      </c>
-      <c r="H164" s="23">
+      <c r="G164" s="13">
+        <v>1</v>
+      </c>
+      <c r="H164" s="13">
         <v>34</v>
       </c>
-      <c r="I164" s="26" t="s">
+      <c r="I164" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="J164" s="26" t="s">
+      <c r="J164" s="14" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="23">
+      <c r="A165" s="13">
         <v>164</v>
       </c>
-      <c r="B165" s="23">
+      <c r="B165" s="13">
         <v>164</v>
       </c>
-      <c r="C165" s="33" t="s">
+      <c r="C165" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="D165" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="3">
-        <v>1</v>
-      </c>
-      <c r="F165" s="10" t="s">
+      <c r="D165" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="G165" s="23">
-        <v>1</v>
-      </c>
-      <c r="H165" s="23">
+      <c r="G165" s="13">
+        <v>1</v>
+      </c>
+      <c r="H165" s="13">
         <v>34</v>
       </c>
-      <c r="I165" s="26" t="s">
+      <c r="I165" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="J165" s="26" t="s">
+      <c r="J165" s="14" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="34">
+    <row r="166" spans="1:10" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="19">
         <v>165</v>
       </c>
-      <c r="B166" s="34">
+      <c r="B166" s="19">
         <v>165</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C166" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="D166" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="34">
-        <v>1</v>
-      </c>
-      <c r="F166" s="38" t="s">
+      <c r="D166" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="19">
+        <v>1</v>
+      </c>
+      <c r="F166" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="G166" s="34">
+      <c r="G166" s="19">
         <v>0</v>
       </c>
-      <c r="H166" s="34">
+      <c r="H166" s="19">
         <v>33</v>
       </c>
-      <c r="I166" s="37" t="s">
+      <c r="I166" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="J166" s="37" t="s">
+      <c r="J166" s="20" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2">
+        <v>166</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D167" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G167" s="2">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2">
+        <v>33</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2">
+        <v>167</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D168" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G168" s="2">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2">
+        <v>33</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2">
+        <v>168</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D169" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G169" s="2">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2">
+        <v>33</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.3/item_config.xlsx
+++ b/config_11.3/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="609">
   <si>
     <t>id|行号</t>
   </si>
@@ -2475,6 +2475,14 @@
   </si>
   <si>
     <t>prop_guess_apple_sd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldfd_icon_shui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldfd_zpg_icon_cc</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2994,7 +3002,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
+      <selection pane="bottomLeft" activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8599,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="27" t="s">
-        <v>436</v>
+        <v>607</v>
       </c>
       <c r="G170" s="25">
         <v>0</v>
@@ -8631,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="G171" s="25">
         <v>0</v>
